--- a/medicine/Mort/Cimetière_de_Malmi/Cimetière_de_Malmi.xlsx
+++ b/medicine/Mort/Cimetière_de_Malmi/Cimetière_de_Malmi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Malmi</t>
+          <t>Cimetière_de_Malmi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Malmi (finnois : Malmin hautausmaa) est un cimetière des paroisses évangéliques luthériennes d'Helsinki situé dans le quartier de Malmi à Helsinki en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Malmi</t>
+          <t>Cimetière_de_Malmi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le cimetière
-La superficie du cimetière est de 65 hectares, dont 54 hectares sont des carrés de tombes. Environ 2 000 enterrements sont effectués chaque année, ce qui fait de Malmi le plus grand cimetière de Finlande. 
-Il y a un total d'environ 50 000 tombes et environ 200 000 inhumations ont été faites pendant toute l'exploitation du cimetière[1].
-Construction
-La chapelle de Malmi, conçue par l'architecte Selim Arvid Lindqvist est construite en 1923. 
-À côté se trouvent les plus petites chapelles Est, Ouest et Nord, construites en 1950, 1952 et 1956[2]. 
-Le bâtiment de la chapelle abrite également un crématorium achevé en 1966. 
-La construction du nouveau bâtiment du crématorium s'est achevé en novembre 2007 à proximité immédiate de la chapelle.
+          <t>Le cimetière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La superficie du cimetière est de 65 hectares, dont 54 hectares sont des carrés de tombes. Environ 2 000 enterrements sont effectués chaque année, ce qui fait de Malmi le plus grand cimetière de Finlande. 
+Il y a un total d'environ 50 000 tombes et environ 200 000 inhumations ont été faites pendant toute l'exploitation du cimetière.
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Malmi</t>
+          <t>Cimetière_de_Malmi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +558,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chapelle de Malmi, conçue par l'architecte Selim Arvid Lindqvist est construite en 1923. 
+À côté se trouvent les plus petites chapelles Est, Ouest et Nord, construites en 1950, 1952 et 1956. 
+Le bâtiment de la chapelle abrite également un crématorium achevé en 1966. 
+La construction du nouveau bâtiment du crématorium s'est achevé en novembre 2007 à proximité immédiate de la chapelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Malmi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Malmi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les personnalités inhumées[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les personnalités inhumées
 </t>
         </is>
       </c>
